--- a/pre/fater/ru/4/4.xlsx
+++ b/pre/fater/ru/4/4.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A149"/>
+  <dimension ref="A1:A162"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -923,7 +923,7 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v xml:space="preserve">Я принимала </v>
+        <v xml:space="preserve">Я пила </v>
       </c>
     </row>
     <row r="110">
@@ -958,184 +958,249 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>таблеток Slimza</v>
+        <v>каблеток Slimza</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v xml:space="preserve">и проверьте свой рацион. - Благодарю за совет. Я действительно стала больше есть. Это произошло как-то неосознанно. После того, как навела порядок в своем рационе, таблетки стали показывать хороший эффект. </v>
+        <v xml:space="preserve">и проверьте свой рацион. </v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Николай</v>
+        <v>Инга</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v xml:space="preserve">Не верю! Столько препаратов сейчас предлагают, один другого лучше, а народ с лишним весом ходит </v>
+        <v xml:space="preserve">- Благодарю за совет. Я действительно стала больше есть. Это произошло как-то неосознанно. После того, как навела порядок в своем рационе, таблетки стали показывать хороший эффект. </v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Наталья Гаркуша</v>
+        <v>Наталья</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v xml:space="preserve">-Добрый день, Николай. Вы правильно делаете, что не верите, потому что лучшее доказательство эффективности любого препарата - применить его самому. Попробуйте пропить </v>
+        <v xml:space="preserve">Неделю принимала таблетки Slimza. Потом перестала, и набрала тот же вес. Что за ерунда, я должна теперь пить этот препарат всю жизнь? </v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>таблетки Slimza</v>
+        <v>Наталья Гаркуша</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v xml:space="preserve">хотя бы две-три недели, и вы увидите, насколько действенен этот препарат. </v>
+        <v xml:space="preserve">Здравствуйте, Наталья. 7 дней приема </v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Настя</v>
+        <v>каблеток Slimza</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>таблетки Slimza</v>
+        <v xml:space="preserve">- это слишком короткий промежуток. За это время организм лишь перестраивается и запускает ранее скрытые механизмы для похудения. Необходимо принимать </v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v xml:space="preserve">подходят даже для таких лентяев, как я, которым некогда ходить в тренажерные залы и бегать по утрам. Идеальный вариант - съел пилюльку и она начинает работать над твоим организмом. Отличное действие на лишний жир - результаты заметны уже на третий день. Вес уходит легко и безболезненно! Приятно, что никаких побочных эффектов - пищеварение не нарушено, стул тоже, а больше всего я боялась кожных высыпаний, но и этого не произошло! Все советую </v>
+        <v>таблетки Slimza</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>таблетки Slimza,</v>
+        <v xml:space="preserve">хотя бы в течение месяца. Тогда эффект будет ощутимым. Во-первых, вы пройдете полный курс похудения. А во-вторых, ваш организм успеет перестроиться и будет работать уже в другом режиме. Конечно же, вам не придется принимать препарат пожизненно. Но для закрепления результатов мы рекомендуем через 4-6 месяцев повторить курс приема. </v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v xml:space="preserve">особенно если вес надо сбросить быстро, а времени на это у вас мало. </v>
+        <v>Николай</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Антонина</v>
+        <v xml:space="preserve">Не верю! Столько препаратов сейчас предлагают, один другого лучше, а народ с лишним весом ходит </v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v xml:space="preserve">Худели на таблетоках вместе со своей сестрой. Я весила 110 килограмм, она 95. Стали принимать </v>
+        <v>Наталья Гаркуша</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>таблетки Slimza</v>
+        <v xml:space="preserve">-Добрый день, Николай. Вы правильно делаете, что не верите, потому что лучшее доказательство эффективности любого препарата - применить его самому. Попробуйте пропить </v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v xml:space="preserve">по одной схеме. У меня вес начал уходить быстрее, не знаю, почему, может, потому что у меня были отеки. Сестра медленнее скидывала вес. Первую неделю очень следили за своим организмом - как бы не заболели почки или желудок. Все прошло очень мягко, только у сестры два дня было более частое мочеиспускание. Потом все восстановилось. Ну что сказать? Месяц принимали </v>
+        <v>таблетки Slimza</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>таблетки Slimza</v>
+        <v xml:space="preserve">хотя бы две-три недели, и вы увидите, насколько действенен этот препарат. </v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v xml:space="preserve">. Я сбросила 14 килограмм, сестра - почти 16, хотя я весила больше и первую неделю тоже вес лучше сбрасывала. Наверное, особенности организма. Сейчас делаем перерыв, через месяц снова повторим, препарат абсолютно безвредный. </v>
+        <v>Настя</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Наталья Гаркуша</v>
+        <v>таблетки Slimza</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v xml:space="preserve">Приятно слышать такие истории) </v>
+        <v xml:space="preserve">подходят даже для таких лентяев, как я, которым некогда ходить в тренажерные залы и бегать по утрам. Идеальный вариант - съел пилюльку и она начинает работать над твоим организмом. Отличное действие на лишний жир - результаты заметны уже на третий день. Вес уходит легко и безболезненно! </v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Артем Анисимов</v>
+        <v xml:space="preserve">Приятно, что никаких побочных эффектов - пищеварение не нарушено, стул тоже, а больше всего я боялась кожных высыпаний, но и этого не произошло! Все советую </v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Куда я съездил пока границы закрыты? Путешествие на легке!</v>
+        <v>таблетки Slimza,</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Валя Валерия</v>
+        <v xml:space="preserve">особенно если вес надо сбросить быстро, а времени на это у вас мало. </v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Исследования на тему самопознания. Вы разговариваете сами с собой?</v>
+        <v>Антонина</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Стас Алексеев</v>
+        <v xml:space="preserve">Худели на таблетках вместе со своей сестрой. Я весила 110 килограмм, она 95. Стали принимать </v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Мои убеждения важнее убеждений моих друзей? Как спор не превратить в драку</v>
+        <v>таблетки Slimza</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Алесандр С</v>
+        <v xml:space="preserve">по одной схеме. У меня вес начал уходить быстрее, не знаю, почему, может, потому что у меня были отеки. Сестра медленнее скидывала вес. </v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Есть страшные мысли, которые сложно сказать даже себе.</v>
+        <v xml:space="preserve">Первую неделю очень следили за своим организмом - как бы не заболели почки или желудок. Все прошло очень мягко, только у сестры два дня было более частое мочеиспускание. Потом все восстановилось. </v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Марина Сикс</v>
+        <v xml:space="preserve">Ну что сказать? Месяц принимали </v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Я религиозный человек - это пугает моего парня.</v>
+        <v>таблетки Slimza</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Поиск</v>
+        <v xml:space="preserve">. Я сбросила 14 килограмм, сестра - почти 16, хотя я весила больше и первую неделю тоже вес лучше сбрасывала. Наверное, особенности организма. Сейчас делаем перерыв, через месяц снова повторим, препарат абсолютно безвредный. </v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Ваше имя</v>
+        <v>Наталья Гаркуша</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
+        <v xml:space="preserve">Приятно слышать такие истории) </v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Артем Анисимов</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Куда я съездил пока границы закрыты? Путешествие на легке!</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Валя Валерия</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Исследования на тему самопознания. Вы разговариваете сами с собой?</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Стас Алексеев</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Мои убеждения важнее убеждений моих друзей? Как спор не превратить в драку</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Алесандр С</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Есть страшные мысли, которые сложно сказать даже себе.</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Марина Сикс</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Я религиозный человек - это пугает моего парня.</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Поиск</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Ваше имя</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
         <v>Текст</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A149"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A162"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1157,7 +1222,7 @@
       &lt;/div&gt;
       &lt;div class="header__search"&gt;
         &lt;img src="img/loop.svg" alt&gt;
-        &lt;input type="text" placeholder="Поиск" data-placeholder="147" data-placeholder-translate="Поиск"&gt;
+        &lt;input type="text" placeholder="Поиск" data-placeholder="160" data-placeholder-translate="Поиск"&gt;
       &lt;/div&gt;
       &lt;div class="header__btn"&gt;
         &lt;a href&gt;&lt;span&gt;&lt;span data-translate="2"&gt;Новая запись&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;
@@ -1381,8 +1446,8 @@
       &lt;div class="comments"&gt;
         &lt;h2&gt;&lt;span data-translate="99"&gt;Комментарии&lt;/span&gt;&lt;/h2&gt;
         &lt;div class="comments__form"&gt;
-          &lt;input type="text" placeholder="Ваше имя" data-placeholder="148" data-placeholder-translate="Ваше имя"&gt;
-          &lt;textarea name id cols="30" rows="6" placeholder="Текст" data-placeholder="149" data-placeholder-translate="Текст"&gt;&lt;/textarea&gt;
+          &lt;input type="text" placeholder="Ваше имя" data-placeholder="161" data-placeholder-translate="Ваше имя"&gt;
+          &lt;textarea name id cols="30" rows="6" placeholder="Текст" data-placeholder="162" data-placeholder-translate="Текст"&gt;&lt;/textarea&gt;
           &lt;a href class="btn"&gt;&lt;span data-translate="100"&gt;Отправить&lt;/span&gt;&lt;/a&gt;
         &lt;/div&gt;
         &lt;br&gt;&lt;br&gt;
@@ -1413,111 +1478,136 @@
             &lt;img src alt&gt;
             &lt;span&gt;&lt;span data-translate="108"&gt;Инга&lt;/span&gt;&lt;/span&gt;
           &lt;/div&gt;
-          &lt;p&gt;&lt;span data-translate="109"&gt;Я принимала &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="110"&gt;таблетки Slimza&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="111"&gt;три недели, сбросила всего 1 килограмм, и что, разве такой результат мне обещали? Какое-то разводилово.&lt;/span&gt;&lt;/p&gt;
+          &lt;p&gt;&lt;span data-translate="109"&gt;Я пила &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="110"&gt;таблетки Slimza&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="111"&gt;три недели, сбросила всего 1 килограмм, и что, разве такой результат мне обещали? Какое-то разводилово.&lt;/span&gt;&lt;/p&gt;
         &lt;/div&gt;
         &lt;div class="comment right"&gt;
           &lt;div class="comment__head"&gt;
             &lt;img src alt&gt;
             &lt;span&gt;&lt;span data-translate="112"&gt;Наталья Гаркуша&lt;/span&gt;&lt;/span&gt;
           &lt;/div&gt;
-          &lt;p&gt;&lt;span data-translate="113"&gt;Добрый день, Инга. &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="114"&gt;таблетки Slimza&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="115"&gt;отлично зарекомендовали себя в ходе обязательного тестирования препарата. Также большинство тех, кто принимал таблетки Slimza для похудения, отмечали поразительный эффект. Почему у вас оказался такой низкий результат? Этому есть ряд причин. Во-первых, еще раз проверьте, правильно ли вы рассчитали для себя дозировку. Во-вторых, проконтролируйте свой режим питания. Некоторые потребители считают, что раз они стали принимать таблетки Slimza, то есть теперь можно в три раза больше. Но это не так. Еще раз изучите инструкцию по приему &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="116"&gt;таблеток Slimza&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="117"&gt;и проверьте свой рацион. 
-            - Благодарю за совет. Я действительно стала больше есть. Это произошло как-то неосознанно. После того, как навела порядок в своем рационе, таблетки стали показывать хороший эффект.
+          &lt;p&gt;&lt;span data-translate="113"&gt;Добрый день, Инга. &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="114"&gt;таблетки Slimza&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="115"&gt;отлично зарекомендовали себя в ходе обязательного тестирования препарата. Также большинство тех, кто принимал таблетки Slimza для похудения, отмечали поразительный эффект. Почему у вас оказался такой низкий результат? Этому есть ряд причин. Во-первых, еще раз проверьте, правильно ли вы рассчитали для себя дозировку. Во-вторых, проконтролируйте свой режим питания. Некоторые потребители считают, что раз они стали принимать таблетки Slimza, то есть теперь можно в три раза больше. Но это не так. Еще раз изучите инструкцию по приему &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="116"&gt;каблеток Slimza&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="117"&gt;и проверьте свой рацион.
+            &lt;/span&gt;&lt;/p&gt;
+        &lt;/div&gt;
+        &lt;div class="comment right"&gt;
+          &lt;div class="comment__head"&gt;
+            &lt;img src alt&gt;
+            &lt;span&gt;&lt;span data-translate="118"&gt;Инга&lt;/span&gt;&lt;/span&gt;
+          &lt;/div&gt;
+          &lt;p&gt;&lt;span data-translate="119"&gt;- Благодарю за совет. Я действительно стала больше есть. Это произошло как-то неосознанно. После того, как навела порядок в своем рационе, таблетки стали показывать хороший эффект.
             &lt;/span&gt;&lt;/p&gt;
         &lt;/div&gt;
         &lt;div class="comment"&gt;
           &lt;div class="comment__head"&gt;
             &lt;img src alt&gt;
-            &lt;span&gt;&lt;span data-translate="118"&gt;Николай&lt;/span&gt;&lt;/span&gt;
+            &lt;span&gt;&lt;span data-translate="120"&gt;Наталья&lt;/span&gt;&lt;/span&gt;
           &lt;/div&gt;
-          &lt;p&gt;&lt;span data-translate="119"&gt;Не верю! Столько препаратов сейчас предлагают, один другого лучше, а народ с лишним весом ходит
+          &lt;p&gt;&lt;span data-transl</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str" xml:space="preserve">
+        <v xml:space="preserve">ate="121"&gt;Неделю принимала таблетки Slimza. Потом перестала, и набрала тот же вес. Что за ерунда, я должна теперь пить этот препарат всю жизнь?
             &lt;/span&gt;&lt;/p&gt;
         &lt;/div&gt;
         &lt;div class="comment right"&gt;
           &lt;div class="comment__head"&gt;
-            &lt;img src al</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str" xml:space="preserve">
-        <v xml:space="preserve">t&gt;
-            &lt;span&gt;&lt;span data-translate="120"&gt;Наталья Гаркуша&lt;/span&gt;&lt;/span&gt;
+            &lt;img src alt&gt;
+            &lt;span&gt;&lt;span data-translate="122"&gt;Наталья Гаркуша&lt;/span&gt;&lt;/span&gt;
           &lt;/div&gt;
-          &lt;p&gt;&lt;span data-translate="121"&gt;-Добрый день, Николай. Вы правильно делаете, что не верите, потому что лучшее доказательство эффективности любого препарата - применить его самому. Попробуйте пропить &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="122"&gt;таблетки Slimza&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="123"&gt;хотя бы две-три недели, и вы увидите, насколько действенен этот препарат.
+          &lt;p&gt;&lt;span data-translate="123"&gt;Здравствуйте, Наталья. 7 дней приема &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="124"&gt;каблеток Slimza&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="125"&gt;- это слишком короткий промежуток. За это время организм лишь перестраивается и запускает ранее скрытые механизмы для похудения. Необходимо принимать &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="126"&gt;таблетки Slimza&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="127"&gt;хотя бы в течение месяца. Тогда эффект будет ощутимым. Во-первых, вы пройдете полный курс похудения. А во-вторых, ваш организм успеет перестроиться и будет работать уже в другом режиме. Конечно же, вам не придется принимать препарат пожизненно. Но для закрепления результатов мы рекомендуем через 4-6 месяцев повторить курс приема.
             &lt;/span&gt;&lt;/p&gt;
         &lt;/div&gt;
         &lt;div class="comment"&gt;
           &lt;div class="comment__head"&gt;
             &lt;img src alt&gt;
-            &lt;span&gt;&lt;span data-translate="124"&gt;Настя&lt;/span&gt;&lt;/span&gt;
+            &lt;span&gt;&lt;span data-translate="128"&gt;Николай&lt;/span&gt;&lt;/span&gt;
           &lt;/div&gt;
-          &lt;p&gt;
-            &lt;a href&gt;&lt;span data-translate="125"&gt;таблетки Slimza&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="126"&gt;подходят даже для таких лентяев, как я, которым некогда ходить в тренажерные залы и бегать по утрам.  Идеальный вариант - съел пилюльку и она начинает работать над твоим организмом. Отличное действие на лишний жир - результаты заметны уже на третий день. Вес уходит легко и безболезненно!
-            Приятно, что никаких побочных эффектов - пищеварение не нарушено, стул тоже, а больше всего я боялась кожных высыпаний, но и этого не произошло! 
-            Все советую &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="127"&gt;таблетки Slimza,&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="128"&gt;особенно если вес надо сбросить быстро, а времени на это у вас мало.
+          &lt;p&gt;&lt;span data-translate="129"&gt;Не верю! Столько препаратов сейчас предлагают, один другого лучше, а народ с лишним весом ходит
+            &lt;/span&gt;&lt;/p&gt;
+        &lt;/div&gt;
+        &lt;div class="comment right"&gt;
+          &lt;div class="comment__head"&gt;
+            &lt;img src alt&gt;
+            &lt;span&gt;&lt;span data-translate="130"&gt;Наталья Гаркуша&lt;/span&gt;&lt;/span&gt;
+          &lt;/div&gt;
+          &lt;p&gt;&lt;span data-translate="131"&gt;-Добрый день, Николай. Вы правильно делаете, что не верите, потому что лучшее доказательство эффективности любого препарата - применить его самому. Попробуйте пропить &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="132"&gt;таблетки Slimza&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="133"&gt;хотя бы две-три недели, и вы увидите, насколько действенен этот препарат.
             &lt;/span&gt;&lt;/p&gt;
         &lt;/div&gt;
         &lt;div class="comment"&gt;
           &lt;div class="comment__head"&gt;
             &lt;img src alt&gt;
-            &lt;span&gt;&lt;span data-translate="129"&gt;Антонина&lt;/span&gt;&lt;/span&gt;
+            &lt;span&gt;&lt;span data-translate="134"&gt;Настя&lt;/span&gt;&lt;/span&gt;
           &lt;/div&gt;
-          &lt;p&gt;&lt;span data-translate="130"&gt;Худели на таблетоках вместе со своей сестрой. Я весила 110 килограмм, она 95. Стали принимать &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="131"&gt;таблетки Slimza&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="132"&gt;по одной схеме. У меня вес начал уходить быстрее, не знаю, почему, может, потому что у меня были отеки. Сестра медленнее скидывала вес. 
-            Первую неделю очень следили за своим организмом - как бы не заболели почки или желудок. Все прошло очень мягко, только у сестры два дня было более частое мочеиспускание. Потом все восстановилось.
-            Ну что сказать? Месяц принимали &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="133"&gt;таблетки Slimza&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="134"&gt;. Я сбросила 14 килограмм, сестра - почти 16, хотя я весила больше и первую неделю тоже вес лучше сбрасывала. Наверное, особенности организма.
+          &lt;p&gt;
+            &lt;a href&gt;&lt;span data-translate="135"&gt;таблетки Slimza&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="136"&gt;подходят даже для таких лентяев, как я, которым некогда ходить в тренажерные залы и бегать по утрам.  Идеальный вариант - съел пилюльку и она начинает работать над твоим организмом. Отличное действие на лишний жир - результаты заметны уже на третий день. Вес уходит легко и безболезненно! &lt;/span&gt;&lt;br&gt;&lt;span data-translate="137"&gt;Приятно, что никаких побочных эффектов - пищеварение не нарушено, стул тоже, а больше всего я боялась кожных высыпаний, но и этого не произошло! 
+            Все советую &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="138"&gt;таблетки Slimza,&lt;/span&gt;&lt;/a&gt;&lt;span data-translate=</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str" xml:space="preserve">
+        <v xml:space="preserve">"139"&gt;особенно если вес надо сбросить быстро, а времени на это у вас мало.
+            &lt;/span&gt;&lt;/p&gt;
+        &lt;/div&gt;
+        &lt;div class="comment"&gt;
+          &lt;div class="comment__head"&gt;
+            &lt;img src alt&gt;
+            &lt;span&gt;&lt;span data-translate="140"&gt;Антонина&lt;/span&gt;&lt;/span&gt;
+          &lt;/div&gt;
+          &lt;p&gt;&lt;span data-translate="141"&gt;Худели на таблетках вместе со своей сестрой. Я весила 110 килограмм, она 95. Стали принимать &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="142"&gt;таблетки Slimza&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="143"&gt;по одной схеме. У меня вес начал уходить быстрее, не знаю, почему, может, потому что у меня были отеки. Сестра медленнее скидывала вес. &lt;/span&gt;&lt;br&gt;&lt;span data-translate="144"&gt;Первую неделю очень следили за своим организмом - как бы не заболели почки или желудок. Все прошло очень мягко, только у сестры два дня было более частое мочеиспускание. Потом все восстановилось. &lt;/span&gt;&lt;br&gt;&lt;span data-translate="145"&gt;Ну что сказать? Месяц принимали &lt;/span&gt;&lt;a href&gt;&lt;span data-translate="146"&gt;таблетки Slimza&lt;/span&gt;&lt;/a&gt;&lt;span data-translate="147"&gt;. Я сбросила 14 килограмм, сестра - почти 16, хотя я весила больше и первую неделю тоже вес лучше сбрасывала. Наверное, особенности организма.
             Сейчас делаем перерыв, через месяц снова повторим, препарат абсолютно безвредный.
             &lt;/span&gt;&lt;/p&gt;
         &lt;/div&gt;
         &lt;div class="comment right"&gt;
           &lt;div class="comment__head"&gt;
             &lt;img src alt&gt;
-            &lt;span&gt;&lt;span data-translate="135"&gt;Наталья Гаркуша&lt;/span&gt;&lt;/span&gt;
+            &lt;span&gt;&lt;span data-translate="148"&gt;Наталья Гаркуша&lt;/span&gt;&lt;/span&gt;
           &lt;/div&gt;
-          &lt;p&gt;&lt;span data-translate="136"&gt;Приятно слышать такие истории)
+          &lt;p&gt;&lt;span data-translate="149"&gt;Приятно слышать такие истории)
             &lt;/span&gt;&lt;/p&gt;
         &lt;/div&gt;
       &lt;/div&gt;
     &lt;/div&gt;
-   </v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8" t="str" xml:space="preserve">
-        <v xml:space="preserve"> &lt;div class="sidebar"&gt;
+    &lt;div class="sidebar"&gt;
       &lt;a href class="sidebar__item"&gt;
         &lt;span class="sidebar__head"&gt;
           &lt;img src="img/side1.png" alt&gt;
-          &lt;i&gt;&lt;span data-translate="137"&gt;Артем Анисимов&lt;/span&gt;&lt;/i&gt;
+          &lt;i&gt;&lt;span data-translate="150"&gt;Артем Анисимов&lt;/span&gt;&lt;/i&gt;
         &lt;/span&gt;
-        &lt;p&gt;&lt;span data-translate="138"&gt;Куда я съездил пока границы закрыты? Путешествие на легке!&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span data-translate="151"&gt;Куда я съездил пока границы закрыты? Путешествие на легке!&lt;/span&gt;&lt;/p&gt;
       &lt;/a&gt;
       &lt;a href class="sidebar__item"&gt;
         &lt;span class="sidebar__head"&gt;
           &lt;img src="img/side2.png" alt&gt;
-          &lt;i&gt;&lt;span data-translate="139"&gt;Валя Валерия&lt;/span&gt;&lt;/i&gt;
+          &lt;i&gt;&lt;span data-translate="152"&gt;Валя Валерия&lt;/span&gt;&lt;/i&gt;
         &lt;/span&gt;
-        &lt;p&gt;&lt;span data-translate="140"&gt;Исследования на тему самопознания. Вы разговариваете сами с собой?&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span data-translate="153"&gt;Исследования на тему самопознания. Вы разговариваете сами с собой?&lt;/span&gt;&lt;/p&gt;
       &lt;/a&gt;
       &lt;a href class="sidebar__item"&gt;
         &lt;span class="sidebar__head"&gt;
           &lt;img src="img/side3.png" alt&gt;
-          &lt;i&gt;&lt;span data-translate="141"&gt;Стас Алексеев&lt;/span&gt;&lt;/i&gt;
+          &lt;i&gt;&lt;span data-translate="154"&gt;Стас Алексеев&lt;/span&gt;&lt;/i&gt;
         &lt;/span&gt;
-        &lt;p&gt;&lt;span data-translate="142"&gt;Мои убеждения важнее убеждений моих друзей?
+        &lt;p&gt;&lt;span data-translate="155"&gt;Мои убеждения важнее убеждений моих друзей?
           Как спор не превратить в драку&lt;/span&gt;&lt;/p&gt;
       &lt;/a&gt;
       &lt;a href class="sidebar__item"&gt;
         &lt;span class="sidebar__head"&gt;
           &lt;img src="img/side4.png" alt&gt;
-          &lt;i&gt;&lt;span data-translate="143"&gt;Алесандр С&lt;/span&gt;&lt;/i&gt;
+          &lt;i&gt;&lt;span data-translate="156"&gt;Алесандр С&lt;/span&gt;&lt;/i&gt;
         &lt;/span&gt;
-        &lt;p&gt;&lt;span data-translate="144"&gt;Есть страшные мысли, которые сложно сказать даже себе.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span data-translate="157"&gt;Есть страшные мысли, которые сложно сказать даже себе.&lt;/span&gt;&lt;/p&gt;
       &lt;/a&gt;
-      &lt;a href class="sidebar__item"&gt;
+     </v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str" xml:space="preserve">
+        <v xml:space="preserve"> &lt;a href class="sidebar__item"&gt;
         &lt;span class="sidebar__head"&gt;
           &lt;img src="img/side5.png" alt&gt;
-          &lt;i&gt;&lt;span data-translate="145"&gt;Марина Сикс&lt;/span&gt;&lt;/i&gt;
+          &lt;i&gt;&lt;span data-translate="158"&gt;Марина Сикс&lt;/span&gt;&lt;/i&gt;
         &lt;/span&gt;
-        &lt;p&gt;&lt;span data-translate="146"&gt;Я религиозный человек - это пугает моего парня.&lt;/span&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;span data-translate="159"&gt;Я религиозный человек - это пугает моего парня.&lt;/span&gt;&lt;/p&gt;
       &lt;/a&gt;
     &lt;/div&gt;
   &lt;/main&gt;
@@ -1535,7 +1625,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A9"/>
   </ignoredErrors>
 </worksheet>
 </file>